--- a/Templates/development/11_template_development.xlsx
+++ b/Templates/development/11_template_development.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fleiva\Insync\sharetrait2022@gmail.com\ShareTrait\doc\templates for data submission\development\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fleiva\Insync\sharetrait2022@gmail.com\ShareTrait\GitHub\ShareTrait\Templates\development\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A4E165-7B2D-4BB0-BBBC-A4FD62BD7EF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A2B07E-D211-4979-A451-94E8109CDD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="174">
   <si>
     <t>Table_name</t>
   </si>
@@ -549,6 +549,9 @@
   <si>
     <t>Relevant notes about the timing of collection such as day, month, year, range of dates, etc</t>
   </si>
+  <si>
+    <t>life_stage_general_final</t>
+  </si>
 </sst>
 </file>
 
@@ -984,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB858EB-2AC9-4E6D-994B-94C2B190997A}">
   <dimension ref="A1:BR1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="AI14" sqref="AI14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1163,7 +1166,7 @@
         <v>81</v>
       </c>
       <c r="AF1" s="30" t="s">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="AG1" s="30" t="s">
         <v>85</v>
@@ -1290,9 +1293,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z977"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B71"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2461,7 +2464,7 @@
         <v>45</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>81</v>
+        <v>173</v>
       </c>
       <c r="C33" s="15" t="s">
         <v>84</v>
